--- a/biology/Biologie cellulaire et moléculaire/The_Journal_of_Immunology/The_Journal_of_Immunology.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/The_Journal_of_Immunology/The_Journal_of_Immunology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Journal of Immunology, ou plus communément JI, est une revue scientifique américaine fondée en février 1916 et spécialisée dans la recherche expérimentale en immunologie. Elle est la propriété de The American Association of Immunologists.
